--- a/assets/findings/2024-02-06-findings.xlsx
+++ b/assets/findings/2024-02-06-findings.xlsx
@@ -641,8 +641,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -674,8 +676,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -740,8 +744,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -773,8 +779,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -839,8 +847,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -872,8 +882,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -938,8 +950,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -971,8 +985,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1037,8 +1053,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1070,8 +1088,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1136,8 +1156,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1169,8 +1191,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1235,8 +1259,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1268,8 +1294,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1334,8 +1362,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1367,8 +1397,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1433,8 +1465,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1466,8 +1500,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1532,8 +1568,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>1</v>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N11" t="n">
         <v>1006833</v>
@@ -1568,8 +1606,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1634,8 +1674,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>1</v>
+      <c r="M12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N12" t="n">
         <v>144414</v>
@@ -1670,8 +1712,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1736,8 +1780,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
@@ -1769,8 +1815,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1835,8 +1883,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
@@ -1868,8 +1918,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1934,8 +1986,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>1</v>
+      <c r="M15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N15" t="n">
         <v>1006833</v>
@@ -1970,8 +2024,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -2036,8 +2092,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>1</v>
+      <c r="M16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N16" t="n">
         <v>144414</v>
@@ -2072,8 +2130,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -2138,8 +2198,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -2171,8 +2233,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -2237,8 +2301,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2270,8 +2336,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2336,8 +2404,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2369,8 +2439,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2628,8 +2700,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -2661,8 +2735,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2727,8 +2803,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -2760,8 +2838,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -2826,8 +2906,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -2859,8 +2941,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -2925,8 +3009,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -2958,8 +3044,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -3024,8 +3112,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -3057,8 +3147,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -3123,8 +3215,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -3156,8 +3250,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -3222,8 +3318,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -3255,8 +3353,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -3321,8 +3421,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -3354,8 +3456,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -3420,8 +3524,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -3453,8 +3559,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -3519,8 +3627,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -3552,8 +3662,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -3618,8 +3730,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -3651,8 +3765,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -3717,8 +3833,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -3750,8 +3868,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -3816,8 +3936,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -3849,8 +3971,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -4098,8 +4222,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -4131,8 +4257,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4197,8 +4325,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -4230,8 +4360,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -4296,8 +4428,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -4329,8 +4463,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -4395,8 +4531,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v>1006833</v>
@@ -4431,8 +4569,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -4497,8 +4637,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N6" t="n">
         <v>144414</v>
@@ -4533,8 +4675,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -4599,8 +4743,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -4632,8 +4778,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -4698,8 +4846,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -4731,8 +4881,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -4797,8 +4949,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -4830,8 +4984,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -4896,8 +5052,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -4929,8 +5087,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -4995,8 +5155,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -5028,8 +5190,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -5094,8 +5258,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>1</v>
+      <c r="M12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N12" t="n">
         <v>1006833</v>
@@ -5130,8 +5296,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -5196,8 +5364,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>1</v>
+      <c r="M13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N13" t="n">
         <v>144414</v>
@@ -5232,8 +5402,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -5479,8 +5651,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -5512,8 +5686,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -5737,8 +5913,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -5770,8 +5948,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -5836,8 +6016,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -5869,8 +6051,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -5935,8 +6119,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -5968,8 +6154,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -6197,8 +6385,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -6230,8 +6420,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -6296,8 +6488,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -6329,8 +6523,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -6395,8 +6591,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -6428,8 +6626,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -6494,8 +6694,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -6527,8 +6729,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -6758,8 +6962,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>3140551</v>
@@ -6794,8 +7000,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -6860,8 +7068,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>1988138</v>
@@ -6896,8 +7106,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -6962,8 +7174,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>605163</v>
@@ -6998,8 +7212,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -7064,8 +7280,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -7097,8 +7315,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -7328,8 +7548,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -7361,8 +7583,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -7586,8 +7810,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -7619,8 +7845,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -7685,8 +7913,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -7718,8 +7948,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -7784,8 +8016,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -7817,8 +8051,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -7883,8 +8119,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -7916,8 +8154,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -7982,8 +8222,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N6" t="n">
         <v>622381</v>
@@ -8018,8 +8260,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -8084,8 +8328,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>1</v>
+      <c r="M7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N7" t="n">
         <v>394118</v>
@@ -8120,8 +8366,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -8186,8 +8434,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>1</v>
+      <c r="M8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N8" t="n">
         <v>535244</v>
@@ -8222,8 +8472,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -8288,8 +8540,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>1</v>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N9" t="n">
         <v>3815000</v>
@@ -8324,8 +8578,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -8390,8 +8646,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>1</v>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N10" t="n">
         <v>3815000</v>
@@ -8426,8 +8684,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -8492,8 +8752,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>1</v>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N11" t="n">
         <v>3815000</v>
@@ -8528,8 +8790,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -8771,8 +9035,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -8804,8 +9070,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -8870,8 +9138,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -8903,8 +9173,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -8969,8 +9241,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -9002,8 +9276,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -9068,8 +9344,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -9101,8 +9379,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -9167,8 +9447,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -9200,8 +9482,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -9266,8 +9550,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -9299,8 +9585,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -9534,8 +9822,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -9567,8 +9857,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -9633,8 +9925,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -9666,8 +9960,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -9732,8 +10028,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -9765,8 +10063,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -9831,8 +10131,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -9864,8 +10166,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -9930,8 +10234,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -9963,8 +10269,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -10029,8 +10337,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -10062,8 +10372,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -10128,8 +10440,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -10161,8 +10475,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -10227,8 +10543,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -10260,8 +10578,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -10326,8 +10646,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -10359,8 +10681,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -10425,8 +10749,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -10458,8 +10784,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -10524,8 +10852,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -10557,8 +10887,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -10623,8 +10955,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -10656,8 +10990,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -10722,8 +11058,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -10755,8 +11093,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -10821,8 +11161,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -10854,8 +11196,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -10920,8 +11264,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>1</v>
+      <c r="M16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N16" t="n">
         <v>458857</v>
@@ -10956,8 +11302,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -11022,8 +11370,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>1</v>
+      <c r="M17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N17" t="n">
         <v>1022</v>
@@ -11058,8 +11408,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -11124,8 +11476,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -11157,8 +11511,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -11223,8 +11579,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -11256,8 +11614,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -11322,8 +11682,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -11355,8 +11717,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -11421,8 +11785,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -11454,8 +11820,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -11520,8 +11888,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -11553,8 +11923,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -11619,8 +11991,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -11652,8 +12026,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -11718,8 +12094,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -11751,8 +12129,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -11817,8 +12197,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -11850,8 +12232,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -11916,8 +12300,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -11949,8 +12335,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -12015,8 +12403,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -12048,8 +12438,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>1</v>
+      <c r="U27" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -12114,8 +12506,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -12147,8 +12541,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -12213,8 +12609,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -12246,8 +12644,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -12312,8 +12712,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -12345,8 +12747,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>1</v>
+      <c r="U30" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -12411,8 +12815,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -12444,8 +12850,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>1</v>
+      <c r="U31" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -12510,8 +12918,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -12543,8 +12953,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -12609,8 +13021,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -12642,8 +13056,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -12708,8 +13124,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -12741,8 +13159,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -13030,8 +13450,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -13063,8 +13485,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -13288,8 +13712,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -13321,8 +13747,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -13387,8 +13815,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -13420,8 +13850,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -13486,8 +13918,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -13519,8 +13953,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -13585,8 +14021,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -13618,8 +14056,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -13684,8 +14124,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -13717,8 +14159,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -13783,8 +14227,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -13816,8 +14262,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -13882,8 +14330,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -13915,8 +14365,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -13981,8 +14433,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -14014,8 +14468,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -14080,8 +14536,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -14113,8 +14571,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -14179,8 +14639,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -14212,8 +14674,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -14278,8 +14742,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>1</v>
+      <c r="M12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N12" t="n">
         <v>229613</v>
@@ -14314,8 +14780,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -14380,8 +14848,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>1</v>
+      <c r="M13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N13" t="n">
         <v>1875105</v>
@@ -14416,8 +14886,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -14482,8 +14954,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>1</v>
+      <c r="M14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N14" t="n">
         <v>1875105</v>
@@ -14518,8 +14992,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -14584,8 +15060,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>1</v>
+      <c r="M15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N15" t="n">
         <v>1875105</v>
@@ -14620,8 +15098,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -14686,8 +15166,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -14719,8 +15201,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -14785,8 +15269,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
@@ -14818,8 +15304,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -15073,8 +15561,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>90345</v>
@@ -15109,8 +15599,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -15175,8 +15667,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>856818</v>
@@ -15211,8 +15705,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -15277,8 +15773,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>151274</v>
@@ -15313,8 +15811,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -15542,8 +16042,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>3140551</v>
@@ -15578,8 +16080,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -15644,8 +16148,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>1988138</v>
@@ -15680,8 +16186,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -15746,8 +16254,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>605163</v>
@@ -15782,8 +16292,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -15848,8 +16360,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -15881,8 +16395,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -15947,8 +16463,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -15980,8 +16498,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -16046,8 +16566,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -16079,8 +16601,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -16145,8 +16669,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -16178,8 +16704,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -16244,8 +16772,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -16277,8 +16807,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -16343,8 +16875,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>1</v>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N10" t="n">
         <v>622381</v>
@@ -16379,8 +16913,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -16445,8 +16981,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>1</v>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N11" t="n">
         <v>394118</v>
@@ -16481,8 +17019,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -16547,8 +17087,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>1</v>
+      <c r="M12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N12" t="n">
         <v>535244</v>
@@ -16583,8 +17125,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -16649,8 +17193,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -16682,8 +17228,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -16748,8 +17296,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -16781,8 +17331,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -17030,8 +17582,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -17063,8 +17617,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -17129,8 +17685,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -17162,8 +17720,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -17228,8 +17788,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -17261,8 +17823,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -17327,8 +17891,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -17360,8 +17926,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -17426,8 +17994,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -17459,8 +18029,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -17525,8 +18097,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -17558,8 +18132,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -17624,8 +18200,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>1</v>
+      <c r="M8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N8" t="n">
         <v>3815000</v>
@@ -17660,8 +18238,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -17726,8 +18306,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>1</v>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N9" t="n">
         <v>3815000</v>
@@ -17762,8 +18344,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -17828,8 +18412,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>1</v>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N10" t="n">
         <v>3815000</v>
@@ -17864,8 +18450,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -17930,8 +18518,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -17963,8 +18553,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -18029,8 +18621,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -18062,8 +18656,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -18128,8 +18724,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -18161,8 +18759,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -18227,8 +18827,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -18260,8 +18862,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -18509,8 +19113,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -18542,8 +19148,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -18767,8 +19375,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -18800,8 +19410,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -18866,8 +19478,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -18899,8 +19513,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -18965,8 +19581,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -18998,8 +19616,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -19064,8 +19684,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -19097,8 +19719,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -19163,8 +19787,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -19196,8 +19822,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -19262,8 +19890,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -19295,8 +19925,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -19530,8 +20162,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -19563,8 +20197,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -19629,8 +20265,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -19662,8 +20300,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -19728,8 +20368,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -19761,8 +20403,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -19827,8 +20471,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -19860,8 +20506,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -19926,8 +20574,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -19959,8 +20609,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -20025,8 +20677,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -20058,8 +20712,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -20124,8 +20780,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -20157,8 +20815,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -20223,8 +20883,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -20256,8 +20918,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -20322,8 +20986,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -20355,8 +21021,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -20421,8 +21089,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -20454,8 +21124,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -20520,8 +21192,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -20553,8 +21227,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -20619,8 +21295,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -20652,8 +21330,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -20718,8 +21398,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -20751,8 +21433,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -20817,8 +21501,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -20850,8 +21536,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -20916,8 +21604,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -20949,8 +21639,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -21015,8 +21707,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -21048,8 +21742,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -21114,8 +21810,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -21147,8 +21845,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -21213,8 +21913,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -21246,8 +21948,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -21312,8 +22016,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
@@ -21345,8 +22051,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -21411,8 +22119,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -21444,8 +22154,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -21510,8 +22222,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -21543,8 +22257,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -21609,8 +22325,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -21642,8 +22360,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -21708,8 +22428,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -21741,8 +22463,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -21807,8 +22531,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -21840,8 +22566,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -21906,8 +22634,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -21939,8 +22669,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -22005,8 +22737,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -22038,8 +22772,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -22104,8 +22840,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -22137,8 +22875,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -22203,8 +22943,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -22236,8 +22978,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -22302,8 +23046,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -22335,8 +23081,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -22401,8 +23149,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -22434,8 +23184,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -22500,8 +23252,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -22533,8 +23287,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
+      <c r="U32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -22599,8 +23355,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -22632,8 +23390,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>1</v>
+      <c r="U33" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -22698,8 +23458,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -22731,8 +23493,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>1</v>
+      <c r="U34" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -22797,8 +23561,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -22830,8 +23596,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>1</v>
+      <c r="U35" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -22896,8 +23664,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -22929,8 +23699,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>1</v>
+      <c r="U36" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -22995,8 +23767,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -23028,8 +23802,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>1</v>
+      <c r="U37" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -23094,8 +23870,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -23127,8 +23905,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>1</v>
+      <c r="U38" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -23424,8 +24204,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -23457,8 +24239,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -23523,8 +24307,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -23556,8 +24342,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -23622,8 +24410,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -23655,8 +24445,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -23721,8 +24513,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -23754,8 +24548,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -23820,8 +24616,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -23853,8 +24651,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -23919,8 +24719,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -23952,8 +24754,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -24018,8 +24822,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>1</v>
+      <c r="M8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N8" t="n">
         <v>229613</v>
@@ -24054,8 +24860,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -24120,8 +24928,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>1</v>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N9" t="n">
         <v>458857</v>
@@ -24156,8 +24966,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -24222,8 +25034,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>1</v>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N10" t="n">
         <v>1022</v>
@@ -24258,8 +25072,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -24324,8 +25140,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>1</v>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N11" t="n">
         <v>1875105</v>
@@ -24360,8 +25178,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -24426,8 +25246,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>1</v>
+      <c r="M12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N12" t="n">
         <v>1875105</v>
@@ -24462,8 +25284,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -24528,8 +25352,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>1</v>
+      <c r="M13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N13" t="n">
         <v>1875105</v>
@@ -24564,8 +25390,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -24630,8 +25458,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -24663,8 +25493,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -24729,8 +25561,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
@@ -24762,8 +25596,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -25013,8 +25849,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>90345</v>
@@ -25049,8 +25887,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -25115,8 +25955,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>856818</v>
@@ -25151,8 +25993,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -25217,8 +26061,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>151274</v>
@@ -25253,8 +26099,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
